--- a/biology/Zoologie/Jacamar_brun/Jacamar_brun.xlsx
+++ b/biology/Zoologie/Jacamar_brun/Jacamar_brun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachygalba lugubris
 Le Jacamar brun (Brachygalba lugubris) est une espèce d'oiseaux de la famille des galbulidés (ou Galbulidae). C'est un oiseau percheur qui se rencontre en Amérique intertropicale et qui vit dans les milieux boisés.
